--- a/back/public/reportes/reporte_acopios.xlsx
+++ b/back/public/reportes/reporte_acopios.xlsx
@@ -55,13 +55,13 @@
     <t>ESTADO</t>
   </si>
   <si>
+    <t>2025-11-02</t>
+  </si>
+  <si>
+    <t>ZUNY MARIA HURTADO PADILLA</t>
+  </si>
+  <si>
     <t>BUENO</t>
-  </si>
-  <si>
-    <t>2025-11-02</t>
-  </si>
-  <si>
-    <t>YUVINKA MELISSA CABRITA MENDEZ</t>
   </si>
   <si>
     <t>ENTREGADO POR:</t>
@@ -390,16 +390,10 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -413,6 +407,12 @@
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -811,7 +811,7 @@
   <dimension ref="A1:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,7 +832,7 @@
     <row r="1" spans="1:11" customHeight="1" ht="18">
       <c r="B1" s="20"/>
       <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="20"/>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -843,27 +843,27 @@
       </c>
     </row>
     <row r="2" spans="1:11" customHeight="1" ht="18">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" customHeight="1" ht="22.5">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
@@ -872,11 +872,11 @@
       <c r="B4" s="30"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="1">
         <v>1</v>
       </c>
@@ -922,16 +922,16 @@
       </c>
     </row>
     <row r="7" spans="1:11" customHeight="1" ht="27.95">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="19">
+        <v>10.0</v>
+      </c>
       <c r="F7" s="11">
         <v>10.0</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="13"/>
       <c r="J7" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K7" s="8"/>
     </row>
